--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1636631.261420911</v>
+        <v>-1639193.750298134</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>370.8194726552475</v>
       </c>
       <c r="C11" t="n">
-        <v>353.3585227627743</v>
+        <v>353.3585227627744</v>
       </c>
       <c r="D11" t="n">
-        <v>342.7686726124497</v>
+        <v>36.46509721899609</v>
       </c>
       <c r="E11" t="n">
-        <v>370.0160010640286</v>
+        <v>370.0160010640287</v>
       </c>
       <c r="F11" t="n">
-        <v>394.9616767334782</v>
+        <v>394.9616767334783</v>
       </c>
       <c r="G11" t="n">
-        <v>399.0073566452202</v>
+        <v>399.0073566452203</v>
       </c>
       <c r="H11" t="n">
-        <v>282.6933953790872</v>
+        <v>282.6933953790873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>29.66256076469278</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.27339277994267</v>
       </c>
       <c r="T11" t="n">
-        <v>192.003601131387</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>239.0808029506688</v>
       </c>
       <c r="V11" t="n">
-        <v>315.8378894619017</v>
+        <v>315.8378894619018</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>337.3265997091799</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>336.7748493842217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851181</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414539</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.9176111737041</v>
+        <v>15.88747725651255</v>
       </c>
       <c r="C13" t="n">
-        <v>155.3324520903946</v>
+        <v>155.3324520903947</v>
       </c>
       <c r="D13" t="n">
-        <v>136.7011040099792</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>134.519593638336</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.5066790146981</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>154.1114392507951</v>
       </c>
       <c r="H13" t="n">
-        <v>132.8406459060876</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>84.43805140160492</v>
+        <v>84.43805140160495</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.01778366181415</v>
+        <v>77.01778366181418</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>177.8546563232088</v>
       </c>
       <c r="T13" t="n">
-        <v>207.634580267936</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>274.2974691973797</v>
+        <v>274.2974691973798</v>
       </c>
       <c r="V13" t="n">
-        <v>4.338894097576503</v>
+        <v>240.2232743155949</v>
       </c>
       <c r="W13" t="n">
-        <v>274.6086293283578</v>
+        <v>274.6086293283579</v>
       </c>
       <c r="X13" t="n">
         <v>213.795286380804</v>
       </c>
       <c r="Y13" t="n">
-        <v>206.6702843438616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>370.8194726552474</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>353.3585227627743</v>
+        <v>353.3585227627744</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>370.0160010640286</v>
+        <v>370.0160010640287</v>
       </c>
       <c r="F14" t="n">
-        <v>394.9616767334782</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>399.0073566452202</v>
+        <v>399.0073566452203</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>282.6933953790873</v>
       </c>
       <c r="I14" t="n">
-        <v>29.66256076469278</v>
+        <v>29.66256076469279</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.1294735218705512</v>
+        <v>97.27339277994267</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.003601131387</v>
       </c>
       <c r="U14" t="n">
         <v>239.0808029506688</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>315.8378894619018</v>
       </c>
       <c r="W14" t="n">
-        <v>337.3265997091798</v>
+        <v>215.4289438674572</v>
       </c>
       <c r="X14" t="n">
-        <v>357.8167316702358</v>
+        <v>357.8167316702359</v>
       </c>
       <c r="Y14" t="n">
-        <v>374.3235696478204</v>
+        <v>374.3235696478205</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498662</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1692,7 +1692,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554016</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>167.9176111737041</v>
+        <v>167.9176111737042</v>
       </c>
       <c r="C16" t="n">
-        <v>155.3324520903946</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>44.27258921496455</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.5066790146981</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>154.111439250795</v>
+        <v>154.1114392507951</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.47956127785774</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>77.01778366181415</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>177.8546563232088</v>
       </c>
       <c r="T16" t="n">
-        <v>207.634580267936</v>
+        <v>207.6345802679361</v>
       </c>
       <c r="U16" t="n">
-        <v>274.2974691973797</v>
+        <v>274.2974691973798</v>
       </c>
       <c r="V16" t="n">
-        <v>240.2232743155948</v>
+        <v>240.2232743155949</v>
       </c>
       <c r="W16" t="n">
-        <v>274.6086293283578</v>
+        <v>274.6086293283579</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>213.795286380804</v>
       </c>
       <c r="Y16" t="n">
-        <v>206.6702843438616</v>
+        <v>206.6702843438617</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C17" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D17" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E17" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F17" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G17" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H17" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.50304156007084</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T17" t="n">
-        <v>106.2332499115148</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U17" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V17" t="n">
         <v>230.0675382420299</v>
@@ -1910,7 +1910,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y17" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646375</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C19" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D19" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010729</v>
       </c>
       <c r="E19" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846411</v>
       </c>
       <c r="F19" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G19" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H19" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621572</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333685</v>
       </c>
       <c r="T19" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U19" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V19" t="n">
         <v>154.452923095723</v>
@@ -2065,10 +2065,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X19" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y19" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="20">
@@ -2090,7 +2090,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F20" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G20" t="n">
         <v>313.2370054253485</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T20" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U20" t="n">
-        <v>153.3104517307958</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V20" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W20" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X20" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y20" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="21">
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C22" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D22" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E22" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F22" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G22" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H22" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T22" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U22" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V22" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W22" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X22" t="n">
         <v>128.0249351609322</v>
@@ -2327,7 +2327,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F23" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G23" t="n">
         <v>313.2370054253485</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.50304156007086</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T23" t="n">
         <v>106.2332499115152</v>
@@ -2375,16 +2375,16 @@
         <v>153.310451730797</v>
       </c>
       <c r="V23" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W23" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X23" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y23" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="24">
@@ -2400,7 +2400,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646375</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2412,7 +2412,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
         <v>18.81721868247745</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.1472599538323</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C25" t="n">
-        <v>69.56210087052284</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D25" t="n">
-        <v>50.93075279010736</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E25" t="n">
-        <v>48.74924241846418</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F25" t="n">
-        <v>47.73632779482625</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G25" t="n">
-        <v>68.34108803092323</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H25" t="n">
-        <v>47.07029468621579</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>92.0843051033369</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T25" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U25" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V25" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W25" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X25" t="n">
         <v>128.0249351609322</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>296.963490443609</v>
+        <v>296.9634904436087</v>
       </c>
       <c r="C26" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511357</v>
       </c>
       <c r="D26" t="n">
-        <v>268.9126904008114</v>
+        <v>268.9126904008111</v>
       </c>
       <c r="E26" t="n">
-        <v>296.1600188523902</v>
+        <v>296.16001885239</v>
       </c>
       <c r="F26" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218396</v>
       </c>
       <c r="G26" t="n">
-        <v>325.1513744335819</v>
+        <v>325.1513744335816</v>
       </c>
       <c r="H26" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674486</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.41741056830422</v>
+        <v>23.41741056830404</v>
       </c>
       <c r="T26" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197483</v>
       </c>
       <c r="U26" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V26" t="n">
-        <v>241.9819072502633</v>
+        <v>241.9819072502631</v>
       </c>
       <c r="W26" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975412</v>
       </c>
       <c r="X26" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585972</v>
       </c>
       <c r="Y26" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2640,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554003</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -2694,7 +2694,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609191</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>94.06162896206567</v>
+        <v>94.06162896206548</v>
       </c>
       <c r="C28" t="n">
-        <v>81.47646987875621</v>
+        <v>81.47646987875602</v>
       </c>
       <c r="D28" t="n">
-        <v>62.84512179834073</v>
+        <v>62.84512179834054</v>
       </c>
       <c r="E28" t="n">
-        <v>60.66361142669754</v>
+        <v>60.66361142669736</v>
       </c>
       <c r="F28" t="n">
-        <v>59.65069680305962</v>
+        <v>59.65069680305943</v>
       </c>
       <c r="G28" t="n">
-        <v>80.2554570391566</v>
+        <v>80.25545703915641</v>
       </c>
       <c r="H28" t="n">
-        <v>58.98466369444915</v>
+        <v>58.98466369444897</v>
       </c>
       <c r="I28" t="n">
-        <v>10.58206918996648</v>
+        <v>10.5820691899663</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.161801450175716</v>
+        <v>3.161801450175531</v>
       </c>
       <c r="S28" t="n">
-        <v>103.9986741115703</v>
+        <v>103.9986741115701</v>
       </c>
       <c r="T28" t="n">
-        <v>133.7785980562976</v>
+        <v>133.7785980562974</v>
       </c>
       <c r="U28" t="n">
-        <v>200.4414869857412</v>
+        <v>200.441486985741</v>
       </c>
       <c r="V28" t="n">
-        <v>166.3672921039564</v>
+        <v>166.3672921039562</v>
       </c>
       <c r="W28" t="n">
-        <v>200.7526471167194</v>
+        <v>200.7526471167192</v>
       </c>
       <c r="X28" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691653</v>
       </c>
       <c r="Y28" t="n">
-        <v>132.8143021322232</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>296.963490443609</v>
+        <v>296.9634904436089</v>
       </c>
       <c r="C29" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D29" t="n">
-        <v>268.9126904008114</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E29" t="n">
-        <v>296.1600188523902</v>
+        <v>296.1600188523901</v>
       </c>
       <c r="F29" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G29" t="n">
-        <v>325.1513744335819</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H29" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>23.41741056830422</v>
+        <v>23.41741056830411</v>
       </c>
       <c r="T29" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U29" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V29" t="n">
-        <v>241.9819072502633</v>
+        <v>241.9819072502632</v>
       </c>
       <c r="W29" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975413</v>
       </c>
       <c r="X29" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y29" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="30">
@@ -2928,7 +2928,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>232.8005871494248</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.06162896206567</v>
+        <v>94.06162896206556</v>
       </c>
       <c r="C31" t="n">
-        <v>81.47646987875621</v>
+        <v>81.47646987875609</v>
       </c>
       <c r="D31" t="n">
-        <v>62.84512179834073</v>
+        <v>62.84512179834061</v>
       </c>
       <c r="E31" t="n">
-        <v>60.66361142669754</v>
+        <v>60.66361142669743</v>
       </c>
       <c r="F31" t="n">
-        <v>59.65069680305962</v>
+        <v>59.6506968030595</v>
       </c>
       <c r="G31" t="n">
-        <v>80.2554570391566</v>
+        <v>80.25545703915648</v>
       </c>
       <c r="H31" t="n">
-        <v>58.98466369444915</v>
+        <v>58.98466369444904</v>
       </c>
       <c r="I31" t="n">
-        <v>10.58206918996648</v>
+        <v>10.58206918996637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.161801450175716</v>
+        <v>3.161801450175602</v>
       </c>
       <c r="S31" t="n">
-        <v>103.9986741115703</v>
+        <v>103.9986741115702</v>
       </c>
       <c r="T31" t="n">
-        <v>133.7785980562976</v>
+        <v>133.7785980562975</v>
       </c>
       <c r="U31" t="n">
-        <v>200.4414869857412</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V31" t="n">
-        <v>166.3672921039564</v>
+        <v>166.3672921039563</v>
       </c>
       <c r="W31" t="n">
-        <v>200.7526471167194</v>
+        <v>200.7526471167193</v>
       </c>
       <c r="X31" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y31" t="n">
-        <v>132.8143021322232</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>296.9634904436089</v>
       </c>
       <c r="C32" t="n">
-        <v>279.5025405511359</v>
+        <v>279.5025405511358</v>
       </c>
       <c r="D32" t="n">
-        <v>268.9126904008113</v>
+        <v>268.9126904008112</v>
       </c>
       <c r="E32" t="n">
         <v>296.1600188523901</v>
       </c>
       <c r="F32" t="n">
-        <v>321.1056945218398</v>
+        <v>321.1056945218397</v>
       </c>
       <c r="G32" t="n">
-        <v>325.1513744335818</v>
+        <v>325.1513744335817</v>
       </c>
       <c r="H32" t="n">
-        <v>208.8374131674488</v>
+        <v>208.8374131674487</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>23.41741056830419</v>
+        <v>23.41741056830409</v>
       </c>
       <c r="T32" t="n">
-        <v>118.1476189197485</v>
+        <v>118.1476189197484</v>
       </c>
       <c r="U32" t="n">
-        <v>165.2248207390303</v>
+        <v>165.2248207390302</v>
       </c>
       <c r="V32" t="n">
         <v>241.9819072502632</v>
       </c>
       <c r="W32" t="n">
-        <v>263.4706174975414</v>
+        <v>263.4706174975413</v>
       </c>
       <c r="X32" t="n">
-        <v>283.9607494585974</v>
+        <v>283.9607494585973</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.4675874361819</v>
+        <v>300.4675874361818</v>
       </c>
     </row>
     <row r="33">
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9994691657075</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>94.06162896206564</v>
+        <v>94.06162896206556</v>
       </c>
       <c r="C34" t="n">
-        <v>81.47646987875618</v>
+        <v>81.47646987875609</v>
       </c>
       <c r="D34" t="n">
-        <v>62.8451217983407</v>
+        <v>62.84512179834061</v>
       </c>
       <c r="E34" t="n">
-        <v>60.66361142669751</v>
+        <v>60.66361142669743</v>
       </c>
       <c r="F34" t="n">
-        <v>59.65069680305959</v>
+        <v>59.6506968030595</v>
       </c>
       <c r="G34" t="n">
-        <v>80.25545703915657</v>
+        <v>80.25545703915648</v>
       </c>
       <c r="H34" t="n">
-        <v>58.98466369444913</v>
+        <v>58.98466369444904</v>
       </c>
       <c r="I34" t="n">
-        <v>10.58206918996645</v>
+        <v>10.58206918996635</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.161801450175687</v>
+        <v>3.161801450175588</v>
       </c>
       <c r="S34" t="n">
         <v>103.9986741115702</v>
@@ -3241,7 +3241,7 @@
         <v>133.7785980562975</v>
       </c>
       <c r="U34" t="n">
-        <v>200.4414869857412</v>
+        <v>200.4414869857411</v>
       </c>
       <c r="V34" t="n">
         <v>166.3672921039563</v>
@@ -3250,10 +3250,10 @@
         <v>200.7526471167193</v>
       </c>
       <c r="X34" t="n">
-        <v>139.9393041691655</v>
+        <v>139.9393041691654</v>
       </c>
       <c r="Y34" t="n">
-        <v>132.8143021322231</v>
+        <v>132.814302132223</v>
       </c>
     </row>
     <row r="35">
@@ -3281,10 +3281,10 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.631974555493798e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247628</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851002</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621577</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,19 +3709,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
         <v>128.0249351609322</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429024</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136063</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253483</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007074</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420298</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893079</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503639</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383219</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052273</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010725</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846406</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482614</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092312</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621568</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333679</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775077</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957229</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084859</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.024935160932</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2230.962242893838</v>
+        <v>1951.526874581959</v>
       </c>
       <c r="C11" t="n">
-        <v>1874.034442123359</v>
+        <v>1594.59907381148</v>
       </c>
       <c r="D11" t="n">
-        <v>1527.803459686541</v>
+        <v>1557.76564227714</v>
       </c>
       <c r="E11" t="n">
-        <v>1154.049923258229</v>
+        <v>1184.012105848828</v>
       </c>
       <c r="F11" t="n">
-        <v>755.0987346385542</v>
+        <v>785.0609172291533</v>
       </c>
       <c r="G11" t="n">
-        <v>352.0610006534837</v>
+        <v>382.0231832440822</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>96.47429902278222</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.3498693062</v>
       </c>
       <c r="T11" t="n">
-        <v>3131.662790163325</v>
+        <v>3227.3498693062</v>
       </c>
       <c r="U11" t="n">
-        <v>2890.167029607094</v>
+        <v>2985.854108749968</v>
       </c>
       <c r="V11" t="n">
-        <v>2571.138858433456</v>
+        <v>2666.82593757633</v>
       </c>
       <c r="W11" t="n">
-        <v>2571.138858433456</v>
+        <v>2326.091998476149</v>
       </c>
       <c r="X11" t="n">
-        <v>2571.138858433456</v>
+        <v>2326.091998476149</v>
       </c>
       <c r="Y11" t="n">
-        <v>2230.962242893838</v>
+        <v>2326.091998476149</v>
       </c>
     </row>
     <row r="12">
@@ -5094,70 +5094,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.968938056493</v>
+        <v>735.1062733976671</v>
       </c>
       <c r="C13" t="n">
-        <v>424.0674712985187</v>
+        <v>578.2048066396927</v>
       </c>
       <c r="D13" t="n">
-        <v>285.9855480561155</v>
+        <v>578.2048066396927</v>
       </c>
       <c r="E13" t="n">
-        <v>285.9855480561155</v>
+        <v>442.3264292272321</v>
       </c>
       <c r="F13" t="n">
-        <v>285.9855480561155</v>
+        <v>307.4711978992542</v>
       </c>
       <c r="G13" t="n">
-        <v>285.9855480561155</v>
+        <v>151.8030774439056</v>
       </c>
       <c r="H13" t="n">
         <v>151.8030774439056</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
         <v>123.4299741972698</v>
@@ -5203,10 +5203,10 @@
         <v>339.212382464297</v>
       </c>
       <c r="L13" t="n">
-        <v>667.5674062309437</v>
+        <v>667.567406230944</v>
       </c>
       <c r="M13" t="n">
-        <v>1023.519677148643</v>
+        <v>1023.519677148644</v>
       </c>
       <c r="N13" t="n">
         <v>1376.723279172659</v>
@@ -5215,7 +5215,7 @@
         <v>1687.848103411223</v>
       </c>
       <c r="P13" t="n">
-        <v>1932.250829163033</v>
+        <v>1932.250829163034</v>
       </c>
       <c r="Q13" t="n">
         <v>2021.656350633699</v>
@@ -5224,25 +5224,25 @@
         <v>1943.860609561159</v>
       </c>
       <c r="S13" t="n">
-        <v>1943.860609561159</v>
+        <v>1764.209441557918</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.128710300618</v>
+        <v>1764.209441557918</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.060559596194</v>
+        <v>1487.141290853494</v>
       </c>
       <c r="V13" t="n">
-        <v>1452.677838285511</v>
+        <v>1244.49151881754</v>
       </c>
       <c r="W13" t="n">
-        <v>1175.295384418483</v>
+        <v>967.1090649505117</v>
       </c>
       <c r="X13" t="n">
-        <v>959.3405496903979</v>
+        <v>751.1542302224273</v>
       </c>
       <c r="Y13" t="n">
-        <v>750.5826867168003</v>
+        <v>751.1542302224273</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1629.144558826319</v>
+        <v>1515.742254427944</v>
       </c>
       <c r="C14" t="n">
-        <v>1272.21675805584</v>
+        <v>1158.814453657465</v>
       </c>
       <c r="D14" t="n">
-        <v>1272.21675805584</v>
+        <v>1158.814453657465</v>
       </c>
       <c r="E14" t="n">
-        <v>898.4632216275284</v>
+        <v>785.0609172291537</v>
       </c>
       <c r="F14" t="n">
-        <v>499.5120330078533</v>
+        <v>785.0609172291537</v>
       </c>
       <c r="G14" t="n">
-        <v>96.47429902278233</v>
+        <v>382.0231832440825</v>
       </c>
       <c r="H14" t="n">
-        <v>96.47429902278233</v>
+        <v>96.4742990227822</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218357</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.475040273948</v>
+        <v>3227.349869306199</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.475040273948</v>
+        <v>3033.406837860353</v>
       </c>
       <c r="U14" t="n">
-        <v>3083.979279717717</v>
+        <v>2791.911077304122</v>
       </c>
       <c r="V14" t="n">
-        <v>3083.979279717717</v>
+        <v>2472.882906130484</v>
       </c>
       <c r="W14" t="n">
-        <v>2743.245340617535</v>
+        <v>2255.277912324971</v>
       </c>
       <c r="X14" t="n">
-        <v>2381.814298526388</v>
+        <v>1893.846870233824</v>
       </c>
       <c r="Y14" t="n">
-        <v>2003.709682720509</v>
+        <v>1515.742254427944</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
         <v>458.9189605332749</v>
@@ -5346,61 +5346,61 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.6567220593066</v>
+        <v>240.84646040052</v>
       </c>
       <c r="C16" t="n">
-        <v>401.7552553013322</v>
+        <v>240.84646040052</v>
       </c>
       <c r="D16" t="n">
-        <v>357.0354682155098</v>
+        <v>240.84646040052</v>
       </c>
       <c r="E16" t="n">
-        <v>357.0354682155098</v>
+        <v>240.84646040052</v>
       </c>
       <c r="F16" t="n">
-        <v>222.1802368875319</v>
+        <v>240.84646040052</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>85.17833994517103</v>
       </c>
       <c r="H16" t="n">
         <v>66.51211643218342</v>
@@ -5434,16 +5434,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>123.4299741972698</v>
+        <v>123.4299741972696</v>
       </c>
       <c r="K16" t="n">
-        <v>339.212382464297</v>
+        <v>339.2123824642969</v>
       </c>
       <c r="L16" t="n">
-        <v>667.567406230944</v>
+        <v>667.5674062309439</v>
       </c>
       <c r="M16" t="n">
-        <v>1023.519677148644</v>
+        <v>1023.519677148643</v>
       </c>
       <c r="N16" t="n">
         <v>1376.723279172659</v>
@@ -5458,28 +5458,28 @@
         <v>2021.656350633699</v>
       </c>
       <c r="R16" t="n">
-        <v>1943.860609561159</v>
+        <v>2021.656350633699</v>
       </c>
       <c r="S16" t="n">
-        <v>1943.860609561159</v>
+        <v>1842.005182630458</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.128710300618</v>
+        <v>1632.273283369916</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.060559596194</v>
+        <v>1355.205132665492</v>
       </c>
       <c r="V16" t="n">
-        <v>1214.410787560239</v>
+        <v>1112.555360629538</v>
       </c>
       <c r="W16" t="n">
-        <v>937.0283336932114</v>
+        <v>835.1729067625098</v>
       </c>
       <c r="X16" t="n">
-        <v>937.0283336932114</v>
+        <v>619.2180720344249</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.2704707196139</v>
+        <v>410.4602090608273</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E17" t="n">
-        <v>894.1397680464981</v>
+        <v>894.1397680464984</v>
       </c>
       <c r="F17" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307344</v>
       </c>
       <c r="G17" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5525,7 +5525,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
         <v>618.1564155387305</v>
@@ -5616,28 +5616,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170918</v>
       </c>
       <c r="C19" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630283</v>
       </c>
       <c r="D19" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245361</v>
       </c>
       <c r="E19" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159865</v>
       </c>
       <c r="F19" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919197</v>
       </c>
       <c r="G19" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404821</v>
       </c>
       <c r="H19" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>67.83109325226765</v>
+        <v>67.83109325226771</v>
       </c>
       <c r="J19" t="n">
-        <v>155.2189959588248</v>
+        <v>176.3617198155312</v>
       </c>
       <c r="K19" t="n">
-        <v>350.2377232523191</v>
+        <v>371.3804471090255</v>
       </c>
       <c r="L19" t="n">
-        <v>602.6554402005003</v>
+        <v>623.7981640572067</v>
       </c>
       <c r="M19" t="n">
-        <v>770.087921499698</v>
+        <v>887.9385183822285</v>
       </c>
       <c r="N19" t="n">
-        <v>1038.104631555369</v>
+        <v>1155.9552284379</v>
       </c>
       <c r="O19" t="n">
-        <v>1272.730853799383</v>
+        <v>1293.87357765609</v>
       </c>
       <c r="P19" t="n">
-        <v>1371.681856552142</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q19" t="n">
-        <v>1481.310496936506</v>
+        <v>1481.310496936505</v>
       </c>
       <c r="R19" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S19" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219652</v>
       </c>
       <c r="T19" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U19" t="n">
         <v>1083.434476062509</v>
       </c>
       <c r="V19" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304657</v>
       </c>
       <c r="W19" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673485</v>
       </c>
       <c r="X19" t="n">
-        <v>607.357570643175</v>
+        <v>607.3575706431747</v>
       </c>
       <c r="Y19" t="n">
-        <v>485.2364260734884</v>
+        <v>485.236426073488</v>
       </c>
     </row>
     <row r="20">
@@ -5729,58 +5729,58 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C20" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D20" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E20" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F20" t="n">
-        <v>581.8252978307338</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G20" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
         <v>3313.986587710109</v>
       </c>
       <c r="T20" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U20" t="n">
         <v>3051.821232515855</v>
@@ -5789,13 +5789,13 @@
         <v>2819.429779746128</v>
       </c>
       <c r="W20" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X20" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y20" t="n">
-        <v>1999.070337960653</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C22" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D22" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E22" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F22" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G22" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>175.0427429954468</v>
       </c>
       <c r="K22" t="n">
-        <v>370.0614702889412</v>
+        <v>370.0614702889411</v>
       </c>
       <c r="L22" t="n">
-        <v>622.4791872371223</v>
+        <v>525.7713142112983</v>
       </c>
       <c r="M22" t="n">
-        <v>789.9116685363201</v>
+        <v>789.91166853632</v>
       </c>
       <c r="N22" t="n">
-        <v>961.2205055661676</v>
+        <v>1046.769673437847</v>
       </c>
       <c r="O22" t="n">
-        <v>1195.846727810181</v>
+        <v>1281.395895681861</v>
       </c>
       <c r="P22" t="n">
-        <v>1380.346898434619</v>
+        <v>1380.34689843462</v>
       </c>
       <c r="Q22" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="R22" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S22" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T22" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U22" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V22" t="n">
-        <v>927.421422430466</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W22" t="n">
-        <v>736.6756869673488</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X22" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y22" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="23">
@@ -5972,46 +5972,46 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E23" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F23" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307327</v>
       </c>
       <c r="G23" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
         <v>3313.986587710109</v>
@@ -6023,7 +6023,7 @@
         <v>3051.821232515854</v>
       </c>
       <c r="V23" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746126</v>
       </c>
       <c r="W23" t="n">
         <v>2565.332559049856</v>
@@ -6048,22 +6048,22 @@
         <v>767.0908251999805</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2593958170921</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C25" t="n">
-        <v>331.9946474630286</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D25" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E25" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F25" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G25" t="n">
         <v>114.0578686404822</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
-        <v>67.83109325226762</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J25" t="n">
-        <v>176.361719815531</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K25" t="n">
-        <v>274.6725740832013</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L25" t="n">
-        <v>505.9475671746766</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M25" t="n">
-        <v>770.0879214996983</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N25" t="n">
         <v>1038.10463155537</v>
       </c>
       <c r="O25" t="n">
-        <v>1272.730853799383</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P25" t="n">
-        <v>1371.681856552142</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q25" t="n">
         <v>1481.310496936507</v>
@@ -6172,7 +6172,7 @@
         <v>1489.975538818984</v>
       </c>
       <c r="S25" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T25" t="n">
         <v>1273.865908363023</v>
@@ -6181,16 +6181,16 @@
         <v>1083.43447606251</v>
       </c>
       <c r="V25" t="n">
-        <v>927.4214224304662</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W25" t="n">
-        <v>736.6756869673491</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X25" t="n">
-        <v>607.3575706431751</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y25" t="n">
-        <v>485.2364260734884</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1786.788719824237</v>
+        <v>1786.788719824235</v>
       </c>
       <c r="C26" t="n">
-        <v>1504.462921287736</v>
+        <v>1504.462921287735</v>
       </c>
       <c r="D26" t="n">
-        <v>1232.833941084896</v>
+        <v>1232.833941084895</v>
       </c>
       <c r="E26" t="n">
-        <v>933.6824068905623</v>
+        <v>933.6824068905618</v>
       </c>
       <c r="F26" t="n">
-        <v>609.3332205048655</v>
+        <v>609.3332205048652</v>
       </c>
       <c r="G26" t="n">
-        <v>280.897488753772</v>
+        <v>280.8974887537717</v>
       </c>
       <c r="H26" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="I26" t="n">
-        <v>113.7020939989261</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J26" t="n">
-        <v>387.4938726656243</v>
+        <v>342.4031163968582</v>
       </c>
       <c r="K26" t="n">
-        <v>761.1351377943804</v>
+        <v>761.1351377943777</v>
       </c>
       <c r="L26" t="n">
-        <v>1212.169351042789</v>
+        <v>1212.169351042786</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.701255714713</v>
+        <v>1745.701255714711</v>
       </c>
       <c r="N26" t="n">
-        <v>2292.480072773496</v>
+        <v>2292.480072773493</v>
       </c>
       <c r="O26" t="n">
-        <v>2795.452543652832</v>
+        <v>2795.45254365283</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.22691001001</v>
+        <v>3190.226910010007</v>
       </c>
       <c r="Q26" t="n">
-        <v>3438.513271765692</v>
+        <v>3438.51327176569</v>
       </c>
       <c r="R26" t="n">
-        <v>3497.530338322495</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S26" t="n">
-        <v>3473.876388253501</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T26" t="n">
-        <v>3354.535359041633</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U26" t="n">
-        <v>3187.641600719381</v>
+        <v>3187.641600719379</v>
       </c>
       <c r="V26" t="n">
-        <v>2943.215431779721</v>
+        <v>2943.215431779719</v>
       </c>
       <c r="W26" t="n">
-        <v>2677.083494913518</v>
+        <v>2677.083494913516</v>
       </c>
       <c r="X26" t="n">
-        <v>2390.254455056348</v>
+        <v>2390.254455056347</v>
       </c>
       <c r="Y26" t="n">
-        <v>2086.751841484448</v>
+        <v>2086.751841484446</v>
       </c>
     </row>
     <row r="27">
@@ -6279,31 +6279,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>944.9823448153745</v>
+        <v>944.9823448153751</v>
       </c>
       <c r="C27" t="n">
-        <v>770.5293155342475</v>
+        <v>770.5293155342481</v>
       </c>
       <c r="D27" t="n">
-        <v>621.5949058729963</v>
+        <v>621.5949058729968</v>
       </c>
       <c r="E27" t="n">
         <v>462.3574508675414</v>
       </c>
       <c r="F27" t="n">
-        <v>315.8228928944264</v>
+        <v>315.8228928944263</v>
       </c>
       <c r="G27" t="n">
-        <v>179.4597927270445</v>
+        <v>179.4597927270444</v>
       </c>
       <c r="H27" t="n">
-        <v>88.95789836491198</v>
+        <v>88.95789836491193</v>
       </c>
       <c r="I27" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J27" t="n">
-        <v>163.6278762570672</v>
+        <v>163.6278762570671</v>
       </c>
       <c r="K27" t="n">
         <v>401.8920752374142</v>
@@ -6342,10 +6342,10 @@
         <v>1783.046837534131</v>
       </c>
       <c r="W27" t="n">
-        <v>1528.809480805929</v>
+        <v>1528.80948080593</v>
       </c>
       <c r="X27" t="n">
-        <v>1320.957980600396</v>
+        <v>1320.957980600397</v>
       </c>
       <c r="Y27" t="n">
         <v>1113.197681835443</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>488.5951419486988</v>
+        <v>488.5951419486974</v>
       </c>
       <c r="C28" t="n">
-        <v>406.2956774247026</v>
+        <v>406.2956774247014</v>
       </c>
       <c r="D28" t="n">
-        <v>342.8157564162776</v>
+        <v>342.8157564162766</v>
       </c>
       <c r="E28" t="n">
-        <v>281.5393812377952</v>
+        <v>281.5393812377944</v>
       </c>
       <c r="F28" t="n">
-        <v>221.2861521437956</v>
+        <v>221.286152143795</v>
       </c>
       <c r="G28" t="n">
-        <v>140.2200339224253</v>
+        <v>140.2200339224249</v>
       </c>
       <c r="H28" t="n">
-        <v>80.63956554419383</v>
+        <v>80.63956554419359</v>
       </c>
       <c r="I28" t="n">
-        <v>69.95060676644991</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J28" t="n">
-        <v>174.1525545523667</v>
+        <v>166.6860080115624</v>
       </c>
       <c r="K28" t="n">
-        <v>357.3760565277099</v>
+        <v>349.9095099869057</v>
       </c>
       <c r="L28" t="n">
-        <v>597.9985481577401</v>
+        <v>662.6880769517099</v>
       </c>
       <c r="M28" t="n">
-        <v>850.3436771646108</v>
+        <v>915.0332059585808</v>
       </c>
       <c r="N28" t="n">
-        <v>1106.565161902131</v>
+        <v>1171.254690696101</v>
       </c>
       <c r="O28" t="n">
-        <v>1329.396158827994</v>
+        <v>1394.085687621964</v>
       </c>
       <c r="P28" t="n">
-        <v>1513.259809288425</v>
+        <v>1577.949338082396</v>
       </c>
       <c r="Q28" t="n">
-        <v>1675.782753148613</v>
+        <v>1675.78275314861</v>
       </c>
       <c r="R28" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.589014310048</v>
       </c>
       <c r="S28" t="n">
-        <v>1567.539848540789</v>
+        <v>1567.539848540786</v>
       </c>
       <c r="T28" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514223</v>
       </c>
       <c r="U28" t="n">
-        <v>1229.94380304378</v>
+        <v>1229.943803043777</v>
       </c>
       <c r="V28" t="n">
-        <v>1061.896033241804</v>
+        <v>1061.896033241801</v>
       </c>
       <c r="W28" t="n">
-        <v>859.1155816087537</v>
+        <v>859.1155816087517</v>
       </c>
       <c r="X28" t="n">
-        <v>717.7627491146471</v>
+        <v>717.7627491146453</v>
       </c>
       <c r="Y28" t="n">
-        <v>583.6068883750278</v>
+        <v>583.6068883750262</v>
       </c>
     </row>
     <row r="29">
@@ -6443,58 +6443,58 @@
         <v>1504.462921287734</v>
       </c>
       <c r="D29" t="n">
-        <v>1232.833941084895</v>
+        <v>1232.833941084894</v>
       </c>
       <c r="E29" t="n">
-        <v>933.6824068905612</v>
+        <v>933.6824068905609</v>
       </c>
       <c r="F29" t="n">
-        <v>609.3332205048646</v>
+        <v>609.3332205048641</v>
       </c>
       <c r="G29" t="n">
-        <v>280.8974887537719</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H29" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="I29" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J29" t="n">
-        <v>258.8297377254753</v>
+        <v>343.7423854331482</v>
       </c>
       <c r="K29" t="n">
-        <v>592.6491114153216</v>
+        <v>761.1351377943777</v>
       </c>
       <c r="L29" t="n">
-        <v>1043.68332466373</v>
+        <v>1212.169351042786</v>
       </c>
       <c r="M29" t="n">
-        <v>1662.127877043327</v>
+        <v>1745.701255714711</v>
       </c>
       <c r="N29" t="n">
-        <v>2208.906694102109</v>
+        <v>2292.480072773493</v>
       </c>
       <c r="O29" t="n">
-        <v>2795.452543652832</v>
+        <v>2795.45254365283</v>
       </c>
       <c r="P29" t="n">
-        <v>3190.226910010009</v>
+        <v>3190.226910010007</v>
       </c>
       <c r="Q29" t="n">
-        <v>3438.513271765692</v>
+        <v>3438.51327176569</v>
       </c>
       <c r="R29" t="n">
-        <v>3497.530338322494</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S29" t="n">
-        <v>3473.8763882535</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T29" t="n">
-        <v>3354.535359041633</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U29" t="n">
-        <v>3187.64160071938</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V29" t="n">
         <v>2943.215431779719</v>
@@ -6534,13 +6534,13 @@
         <v>179.4597927270444</v>
       </c>
       <c r="H30" t="n">
-        <v>88.95789836491196</v>
+        <v>88.95789836491193</v>
       </c>
       <c r="I30" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J30" t="n">
-        <v>163.6278762570672</v>
+        <v>163.6278762570671</v>
       </c>
       <c r="K30" t="n">
         <v>401.8920752374142</v>
@@ -6558,16 +6558,16 @@
         <v>2100.350883744904</v>
       </c>
       <c r="P30" t="n">
-        <v>2410.850475221008</v>
+        <v>2410.850475221007</v>
       </c>
       <c r="Q30" t="n">
-        <v>2568.492032867608</v>
+        <v>2568.492032867607</v>
       </c>
       <c r="R30" t="n">
-        <v>2568.347679460123</v>
+        <v>2568.347679460122</v>
       </c>
       <c r="S30" t="n">
-        <v>2438.909792953603</v>
+        <v>2438.909792953602</v>
       </c>
       <c r="T30" t="n">
         <v>2246.266792631458</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>488.5951419486987</v>
+        <v>488.5951419486979</v>
       </c>
       <c r="C31" t="n">
-        <v>406.2956774247025</v>
+        <v>406.2956774247018</v>
       </c>
       <c r="D31" t="n">
-        <v>342.8157564162775</v>
+        <v>342.8157564162769</v>
       </c>
       <c r="E31" t="n">
-        <v>281.5393812377952</v>
+        <v>281.5393812377947</v>
       </c>
       <c r="F31" t="n">
-        <v>221.2861521437956</v>
+        <v>221.2861521437952</v>
       </c>
       <c r="G31" t="n">
-        <v>140.2200339224253</v>
+        <v>140.220033922425</v>
       </c>
       <c r="H31" t="n">
-        <v>80.6395655441938</v>
+        <v>80.63956554419366</v>
       </c>
       <c r="I31" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J31" t="n">
-        <v>199.9858869210583</v>
+        <v>166.6860080115623</v>
       </c>
       <c r="K31" t="n">
-        <v>383.2093888964015</v>
+        <v>349.9095099869056</v>
       </c>
       <c r="L31" t="n">
-        <v>623.8318805264316</v>
+        <v>590.5320016169359</v>
       </c>
       <c r="M31" t="n">
-        <v>876.1770095333023</v>
+        <v>842.8771306238066</v>
       </c>
       <c r="N31" t="n">
-        <v>1132.398494270823</v>
+        <v>1099.098615361327</v>
       </c>
       <c r="O31" t="n">
-        <v>1355.229491196685</v>
+        <v>1394.085687621966</v>
       </c>
       <c r="P31" t="n">
-        <v>1539.093141657117</v>
+        <v>1577.949338082397</v>
       </c>
       <c r="Q31" t="n">
-        <v>1675.782753148613</v>
+        <v>1675.782753148611</v>
       </c>
       <c r="R31" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.58901431005</v>
       </c>
       <c r="S31" t="n">
-        <v>1567.539848540788</v>
+        <v>1567.539848540787</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514224</v>
       </c>
       <c r="U31" t="n">
-        <v>1229.94380304378</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V31" t="n">
-        <v>1061.896033241803</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W31" t="n">
-        <v>859.1155816087536</v>
+        <v>859.1155816087524</v>
       </c>
       <c r="X31" t="n">
-        <v>717.762749114647</v>
+        <v>717.762749114646</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.6068883750277</v>
+        <v>583.6068883750268</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1786.788719824236</v>
+        <v>1786.788719824234</v>
       </c>
       <c r="C32" t="n">
-        <v>1504.462921287735</v>
+        <v>1504.462921287733</v>
       </c>
       <c r="D32" t="n">
-        <v>1232.833941084895</v>
+        <v>1232.833941084894</v>
       </c>
       <c r="E32" t="n">
-        <v>933.6824068905617</v>
+        <v>933.6824068905603</v>
       </c>
       <c r="F32" t="n">
-        <v>609.3332205048648</v>
+        <v>609.3332205048636</v>
       </c>
       <c r="G32" t="n">
-        <v>280.8974887537719</v>
+        <v>280.8974887537718</v>
       </c>
       <c r="H32" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="I32" t="n">
-        <v>113.7020939989261</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J32" t="n">
-        <v>302.5812249579515</v>
+        <v>342.4031163968571</v>
       </c>
       <c r="K32" t="n">
-        <v>636.4005986477978</v>
+        <v>676.2224900867036</v>
       </c>
       <c r="L32" t="n">
-        <v>1087.434811896206</v>
+        <v>1127.256703335112</v>
       </c>
       <c r="M32" t="n">
-        <v>1620.966716568131</v>
+        <v>1745.70125571471</v>
       </c>
       <c r="N32" t="n">
-        <v>2252.658181334586</v>
+        <v>2292.480072773492</v>
       </c>
       <c r="O32" t="n">
-        <v>2755.630652213923</v>
+        <v>2795.452543652829</v>
       </c>
       <c r="P32" t="n">
-        <v>3190.226910010009</v>
+        <v>3190.226910010007</v>
       </c>
       <c r="Q32" t="n">
-        <v>3438.513271765692</v>
+        <v>3438.51327176569</v>
       </c>
       <c r="R32" t="n">
-        <v>3497.530338322494</v>
+        <v>3497.530338322492</v>
       </c>
       <c r="S32" t="n">
-        <v>3473.8763882535</v>
+        <v>3473.876388253498</v>
       </c>
       <c r="T32" t="n">
-        <v>3354.535359041633</v>
+        <v>3354.535359041631</v>
       </c>
       <c r="U32" t="n">
-        <v>3187.641600719381</v>
+        <v>3187.641600719378</v>
       </c>
       <c r="V32" t="n">
-        <v>2943.215431779721</v>
+        <v>2943.215431779719</v>
       </c>
       <c r="W32" t="n">
-        <v>2677.083494913517</v>
+        <v>2677.083494913515</v>
       </c>
       <c r="X32" t="n">
-        <v>2390.254455056348</v>
+        <v>2390.254455056346</v>
       </c>
       <c r="Y32" t="n">
-        <v>2086.751841484447</v>
+        <v>2086.751841484445</v>
       </c>
     </row>
     <row r="33">
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>944.9823448153745</v>
+        <v>944.9823448153747</v>
       </c>
       <c r="C33" t="n">
-        <v>770.5293155342475</v>
+        <v>770.5293155342478</v>
       </c>
       <c r="D33" t="n">
-        <v>621.5949058729963</v>
+        <v>621.5949058729966</v>
       </c>
       <c r="E33" t="n">
-        <v>462.3574508675408</v>
+        <v>462.357450867541</v>
       </c>
       <c r="F33" t="n">
-        <v>315.8228928944258</v>
+        <v>315.8228928944261</v>
       </c>
       <c r="G33" t="n">
         <v>179.4597927270444</v>
       </c>
       <c r="H33" t="n">
-        <v>88.95789836491196</v>
+        <v>88.9578983649119</v>
       </c>
       <c r="I33" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J33" t="n">
-        <v>163.6278762570672</v>
+        <v>163.6278762570676</v>
       </c>
       <c r="K33" t="n">
-        <v>401.8920752374142</v>
+        <v>401.8920752374146</v>
       </c>
       <c r="L33" t="n">
-        <v>768.5902355500796</v>
+        <v>768.59023555008</v>
       </c>
       <c r="M33" t="n">
-        <v>1215.866560772395</v>
+        <v>1215.866560772396</v>
       </c>
       <c r="N33" t="n">
         <v>1689.38960432685</v>
       </c>
       <c r="O33" t="n">
-        <v>2100.350883744904</v>
+        <v>2100.350883744905</v>
       </c>
       <c r="P33" t="n">
-        <v>2410.850475221007</v>
+        <v>2410.850475221008</v>
       </c>
       <c r="Q33" t="n">
-        <v>2568.492032867607</v>
+        <v>2568.492032867608</v>
       </c>
       <c r="R33" t="n">
-        <v>2568.347679460122</v>
+        <v>2568.347679460123</v>
       </c>
       <c r="S33" t="n">
-        <v>2438.909792953602</v>
+        <v>2438.909792953603</v>
       </c>
       <c r="T33" t="n">
         <v>2246.266792631458</v>
@@ -6816,10 +6816,10 @@
         <v>1783.046837534131</v>
       </c>
       <c r="W33" t="n">
-        <v>1528.809480805929</v>
+        <v>1528.80948080593</v>
       </c>
       <c r="X33" t="n">
-        <v>1320.957980600396</v>
+        <v>1320.957980600397</v>
       </c>
       <c r="Y33" t="n">
         <v>1113.197681835443</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>488.5951419486985</v>
+        <v>488.5951419486979</v>
       </c>
       <c r="C34" t="n">
-        <v>406.2956774247024</v>
+        <v>406.2956774247018</v>
       </c>
       <c r="D34" t="n">
-        <v>342.8157564162775</v>
+        <v>342.8157564162769</v>
       </c>
       <c r="E34" t="n">
-        <v>281.5393812377951</v>
+        <v>281.5393812377947</v>
       </c>
       <c r="F34" t="n">
-        <v>221.2861521437955</v>
+        <v>221.2861521437952</v>
       </c>
       <c r="G34" t="n">
-        <v>140.2200339224252</v>
+        <v>140.220033922425</v>
       </c>
       <c r="H34" t="n">
-        <v>80.63956554419377</v>
+        <v>80.63956554419364</v>
       </c>
       <c r="I34" t="n">
-        <v>69.95060676644988</v>
+        <v>69.95060676644985</v>
       </c>
       <c r="J34" t="n">
         <v>166.6860080115623</v>
       </c>
       <c r="K34" t="n">
-        <v>349.9095099869055</v>
+        <v>349.9095099869057</v>
       </c>
       <c r="L34" t="n">
-        <v>590.5320016169356</v>
+        <v>590.532001616936</v>
       </c>
       <c r="M34" t="n">
-        <v>915.0332059585841</v>
+        <v>842.8771306238068</v>
       </c>
       <c r="N34" t="n">
-        <v>1171.254690696104</v>
+        <v>1099.098615361327</v>
       </c>
       <c r="O34" t="n">
-        <v>1394.085687621967</v>
+        <v>1321.92961228719</v>
       </c>
       <c r="P34" t="n">
-        <v>1577.949338082399</v>
+        <v>1577.949338082397</v>
       </c>
       <c r="Q34" t="n">
-        <v>1675.782753148612</v>
+        <v>1675.782753148611</v>
       </c>
       <c r="R34" t="n">
-        <v>1672.589014310051</v>
+        <v>1672.58901431005</v>
       </c>
       <c r="S34" t="n">
-        <v>1567.539848540788</v>
+        <v>1567.539848540787</v>
       </c>
       <c r="T34" t="n">
-        <v>1432.409951514225</v>
+        <v>1432.409951514224</v>
       </c>
       <c r="U34" t="n">
-        <v>1229.943803043779</v>
+        <v>1229.943803043778</v>
       </c>
       <c r="V34" t="n">
-        <v>1061.896033241803</v>
+        <v>1061.896033241802</v>
       </c>
       <c r="W34" t="n">
-        <v>859.1155816087534</v>
+        <v>859.1155816087524</v>
       </c>
       <c r="X34" t="n">
-        <v>717.7627491146468</v>
+        <v>717.762749114646</v>
       </c>
       <c r="Y34" t="n">
-        <v>583.6068883750274</v>
+        <v>583.6068883750268</v>
       </c>
     </row>
     <row r="35">
@@ -6917,58 +6917,58 @@
         <v>1440.850850103805</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218508</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810568</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
         <v>2819.429779746128</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7035,31 +7035,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7084,37 +7084,37 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K37" t="n">
-        <v>273.3535972631171</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L37" t="n">
-        <v>429.0634411854743</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M37" t="n">
-        <v>682.0450903563521</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120234</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656037</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.34689843462</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R37" t="n">
         <v>1489.975538818984</v>
@@ -7157,13 +7157,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307336</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
         <v>66.51211643218342</v>
@@ -7172,25 +7172,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
@@ -7202,13 +7202,13 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
@@ -7245,7 +7245,7 @@
         <v>176.0213023927768</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
         <v>114.0578686404822</v>
@@ -7327,55 +7327,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226765</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K40" t="n">
-        <v>370.061470288941</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371221</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M40" t="n">
-        <v>789.9116685363199</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N40" t="n">
-        <v>1057.928378591991</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O40" t="n">
-        <v>1292.554600836005</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P40" t="n">
-        <v>1477.054771460443</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S40" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T40" t="n">
         <v>1273.865908363023</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.421422430466</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673488</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.357570643175</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734884</v>
       </c>
     </row>
     <row r="41">
@@ -7397,19 +7397,19 @@
         <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495726</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7421,40 +7421,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668173</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515853</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746126</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049855</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362619</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170914</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630281</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245359</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159864</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962282</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372931</v>
+        <v>371.3804471090252</v>
       </c>
       <c r="L43" t="n">
-        <v>409.2396941488499</v>
+        <v>623.7981640572062</v>
       </c>
       <c r="M43" t="n">
-        <v>673.3800484738717</v>
+        <v>866.7957945255229</v>
       </c>
       <c r="N43" t="n">
-        <v>941.3967585295433</v>
+        <v>1038.10463155537</v>
       </c>
       <c r="O43" t="n">
-        <v>1176.022980773557</v>
+        <v>1272.730853799384</v>
       </c>
       <c r="P43" t="n">
-        <v>1371.68185655214</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1481.310496936504</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818982</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363021</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062508</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.421422430465</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673479</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431742</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734876</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7631,13 +7631,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,22 +7646,22 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296686</v>
@@ -7676,16 +7676,16 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
         <v>176.021302392778</v>
@@ -7725,10 +7725,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
         <v>765.151745215813</v>
@@ -7770,7 +7770,7 @@
         <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170925</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159869</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>183.0892706919199</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
         <v>114.0578686404822</v>
@@ -7801,55 +7801,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J46" t="n">
-        <v>155.218995958826</v>
+        <v>79.65384678970709</v>
       </c>
       <c r="K46" t="n">
-        <v>253.5298502264963</v>
+        <v>274.6725740832014</v>
       </c>
       <c r="L46" t="n">
-        <v>409.2396941488535</v>
+        <v>527.0902910313825</v>
       </c>
       <c r="M46" t="n">
-        <v>673.3800484738751</v>
+        <v>791.2306453564042</v>
       </c>
       <c r="N46" t="n">
-        <v>941.3967585295464</v>
+        <v>1059.247355412076</v>
       </c>
       <c r="O46" t="n">
-        <v>1176.02298077356</v>
+        <v>1293.873577656089</v>
       </c>
       <c r="P46" t="n">
-        <v>1371.681856552143</v>
+        <v>1468.389729577965</v>
       </c>
       <c r="Q46" t="n">
-        <v>1481.310496936507</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R46" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818983</v>
       </c>
       <c r="S46" t="n">
-        <v>1396.961089219654</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T46" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363022</v>
       </c>
       <c r="U46" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062509</v>
       </c>
       <c r="V46" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W46" t="n">
-        <v>736.6756869673495</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X46" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
   </sheetData>
@@ -10030,13 +10030,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>7.541966202832768</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>72.88492458057971</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10051,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10282,13 +10282,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>72.88492458058167</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.24868325786068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>72.88492458058357</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>72.88492458058138</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.22461775697434</v>
+        <v>15.22461775697435</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.8194726552474</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>306.3035753934537</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.66256076469278</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.27339277994265</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.003601131387</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>337.3265997091798</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>357.8167316702358</v>
+        <v>357.8167316702359</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.54872026359869</v>
+        <v>374.3235696478205</v>
       </c>
     </row>
     <row r="12">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.0301339171916</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>136.7011040099792</v>
       </c>
       <c r="E13" t="n">
-        <v>134.519593638336</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.5066790146981</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>154.111439250795</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>132.8406459060876</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>177.8546563232087</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>207.6345802679361</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.8843802180183</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>206.6702843438617</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>370.8194726552475</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>342.7686726124497</v>
+        <v>342.7686726124498</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>394.9616767334783</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>282.6933953790872</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.14391925807209</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.003601131387</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>315.8378894619017</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>121.8976558417227</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>155.3324520903947</v>
       </c>
       <c r="D16" t="n">
-        <v>92.42851479501461</v>
+        <v>136.7011040099792</v>
       </c>
       <c r="E16" t="n">
         <v>134.519593638336</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.5066790146981</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>132.8406459060876</v>
+        <v>114.3610846282299</v>
       </c>
       <c r="I16" t="n">
-        <v>84.43805140160492</v>
+        <v>84.43805140160495</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>77.01778366181418</v>
       </c>
       <c r="S16" t="n">
-        <v>177.8546563232087</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>213.795286380804</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.108446667785756e-12</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1253181.972911742</v>
+        <v>1253181.972911741</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1253181.972911742</v>
+        <v>1253181.972911741</v>
       </c>
     </row>
     <row r="12">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>184337.1762113336</v>
+      </c>
+      <c r="C2" t="n">
         <v>184337.1762113337</v>
-      </c>
-      <c r="C2" t="n">
-        <v>184337.1762113336</v>
       </c>
       <c r="D2" t="n">
         <v>184338.5753362022</v>
       </c>
       <c r="E2" t="n">
+        <v>158183.3494496943</v>
+      </c>
+      <c r="F2" t="n">
         <v>158183.3494496942</v>
       </c>
-      <c r="F2" t="n">
-        <v>158183.3494496943</v>
-      </c>
       <c r="G2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="H2" t="n">
         <v>184734.3982194637</v>
       </c>
-      <c r="H2" t="n">
-        <v>184734.3982194636</v>
-      </c>
       <c r="I2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="J2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="K2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194639</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.398219464</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
       </c>
       <c r="N2" t="n">
+        <v>184734.3982194636</v>
+      </c>
+      <c r="O2" t="n">
         <v>184734.3982194637</v>
-      </c>
-      <c r="O2" t="n">
-        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>16642.08507315528</v>
+        <v>16642.0850731535</v>
       </c>
       <c r="E3" t="n">
-        <v>1117687.589588134</v>
+        <v>1117687.589588136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68616.28097589743</v>
+        <v>68616.28097589719</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8.315214472531807e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11245.75456273517</v>
+        <v>11245.75456273509</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>68616.28097589746</v>
+        <v>68616.28097589753</v>
       </c>
       <c r="M3" t="n">
         <v>206008.9941829029</v>
@@ -26421,43 +26421,43 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>460842.8736226514</v>
+        <v>460842.8736226521</v>
       </c>
       <c r="E4" t="n">
-        <v>27909.85740473187</v>
+        <v>27909.85740473175</v>
       </c>
       <c r="F4" t="n">
-        <v>27909.85740473188</v>
+        <v>27909.85740473175</v>
       </c>
       <c r="G4" t="n">
-        <v>93774.13782657706</v>
+        <v>93774.13782657711</v>
       </c>
       <c r="H4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.137826577</v>
       </c>
       <c r="I4" t="n">
         <v>93774.13782657705</v>
       </c>
       <c r="J4" t="n">
-        <v>94100.04165292103</v>
+        <v>94100.04165292098</v>
       </c>
       <c r="K4" t="n">
-        <v>94100.04165292101</v>
+        <v>94100.04165292098</v>
       </c>
       <c r="L4" t="n">
-        <v>94100.04165292098</v>
+        <v>94100.04165292089</v>
       </c>
       <c r="M4" t="n">
-        <v>93774.13782657711</v>
+        <v>93774.137826577</v>
       </c>
       <c r="N4" t="n">
-        <v>93774.13782657703</v>
+        <v>93774.13782657706</v>
       </c>
       <c r="O4" t="n">
-        <v>93774.13782657713</v>
+        <v>93774.13782657705</v>
       </c>
       <c r="P4" t="n">
-        <v>93774.137826577</v>
+        <v>93774.13782657706</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34051.223918566</v>
+        <v>34051.22391856596</v>
       </c>
       <c r="E5" t="n">
-        <v>75307.96964954644</v>
+        <v>75307.96964954647</v>
       </c>
       <c r="F5" t="n">
-        <v>75307.96964954644</v>
+        <v>75307.96964954646</v>
       </c>
       <c r="G5" t="n">
         <v>82518.59730624985</v>
@@ -26491,25 +26491,25 @@
         <v>82518.59730624984</v>
       </c>
       <c r="J5" t="n">
-        <v>84130.22087213921</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="K5" t="n">
-        <v>84130.22087213919</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="L5" t="n">
-        <v>84130.22087213919</v>
+        <v>84130.22087213918</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624984</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316906.3837203975</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="C6" t="n">
-        <v>-316906.3837203976</v>
+        <v>-316910.7972982657</v>
       </c>
       <c r="D6" t="n">
-        <v>-327197.6072781705</v>
+        <v>-327202.0053102057</v>
       </c>
       <c r="E6" t="n">
-        <v>-1062722.067192718</v>
+        <v>-1063017.078845718</v>
       </c>
       <c r="F6" t="n">
-        <v>54965.52239541597</v>
+        <v>54670.51074241871</v>
       </c>
       <c r="G6" t="n">
-        <v>-60174.61788926067</v>
+        <v>-60174.61788926055</v>
       </c>
       <c r="H6" t="n">
-        <v>8441.663086636763</v>
+        <v>8441.663086636792</v>
       </c>
       <c r="I6" t="n">
+        <v>8441.663086637025</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-4741.618868331338</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6504.135694403754</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-62112.14528149378</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-197567.3310962661</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8441.663086636734</v>
+      </c>
+      <c r="O6" t="n">
         <v>8441.66308663685</v>
       </c>
-      <c r="J6" t="n">
-        <v>-4741.618868331454</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6504.135694403769</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-62112.14528149366</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-197567.3310962662</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8441.663086636865</v>
-      </c>
-      <c r="O6" t="n">
-        <v>8441.663086636618</v>
-      </c>
       <c r="P6" t="n">
-        <v>8441.663086636865</v>
+        <v>8441.663086636734</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="F2" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="G2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I2" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J2" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="K2" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="M2" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
+        <v>97.68472022810501</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="O2" t="n">
-        <v>97.68472022810511</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247722</v>
+        <v>19.43228984247513</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26805,28 +26805,28 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>874.3825845806238</v>
+        <v>874.3825845806231</v>
       </c>
       <c r="K4" t="n">
-        <v>874.3825845806235</v>
+        <v>874.3825845806231</v>
       </c>
       <c r="L4" t="n">
-        <v>874.3825845806235</v>
+        <v>874.3825845806231</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>85.7703512198718</v>
+        <v>85.77035121987193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.77035121987183</v>
+        <v>85.77035121987193</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91436900823329</v>
+        <v>11.91436900823309</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.43228984247722</v>
+        <v>19.43228984247513</v>
       </c>
       <c r="E3" t="n">
-        <v>1070.344410750821</v>
+        <v>1070.344410750823</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.42530736967343e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>42.98112917833123</v>
+        <v>42.98112917833043</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>788.420326223962</v>
+        <v>788.4203262239627</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>85.7703512198718</v>
+        <v>85.77035121987193</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,40 +27871,40 @@
         <v>338.6747581425038</v>
       </c>
       <c r="I8" t="n">
-        <v>207.4641775939151</v>
+        <v>207.4641775939154</v>
       </c>
       <c r="J8" t="n">
-        <v>174.4155877024935</v>
+        <v>174.4155877024942</v>
       </c>
       <c r="K8" t="n">
-        <v>210.1527248578448</v>
+        <v>210.1527248578459</v>
       </c>
       <c r="L8" t="n">
-        <v>223.4385312340406</v>
+        <v>223.4385312340419</v>
       </c>
       <c r="M8" t="n">
-        <v>216.6290872421355</v>
+        <v>216.629087242137</v>
       </c>
       <c r="N8" t="n">
-        <v>215.4739598485796</v>
+        <v>215.4739598485811</v>
       </c>
       <c r="O8" t="n">
-        <v>216.935911018886</v>
+        <v>216.9359110188874</v>
       </c>
       <c r="P8" t="n">
-        <v>219.9992768820614</v>
+        <v>219.9992768820626</v>
       </c>
       <c r="Q8" t="n">
-        <v>213.8696348403718</v>
+        <v>213.8696348403728</v>
       </c>
       <c r="R8" t="n">
-        <v>210.6783475555693</v>
+        <v>210.6783475555698</v>
       </c>
       <c r="S8" t="n">
-        <v>207.2399155971581</v>
+        <v>207.2399155971583</v>
       </c>
       <c r="T8" t="n">
-        <v>222.7538803227828</v>
+        <v>222.7538803227829</v>
       </c>
       <c r="U8" t="n">
         <v>251.3394033271836</v>
@@ -27950,37 +27950,37 @@
         <v>111.8317659135424</v>
       </c>
       <c r="I9" t="n">
-        <v>98.0832906107222</v>
+        <v>98.08329061072236</v>
       </c>
       <c r="J9" t="n">
-        <v>122.888655388395</v>
+        <v>122.8886553883954</v>
       </c>
       <c r="K9" t="n">
-        <v>131.0920180769016</v>
+        <v>131.0920180769023</v>
       </c>
       <c r="L9" t="n">
-        <v>129.4789504529701</v>
+        <v>129.478950452971</v>
       </c>
       <c r="M9" t="n">
-        <v>131.5434359578682</v>
+        <v>131.5434359578694</v>
       </c>
       <c r="N9" t="n">
-        <v>120.4708125043799</v>
+        <v>120.4708125043811</v>
       </c>
       <c r="O9" t="n">
-        <v>132.6514951323231</v>
+        <v>132.6514951323242</v>
       </c>
       <c r="P9" t="n">
-        <v>125.9928693467663</v>
+        <v>125.9928693467672</v>
       </c>
       <c r="Q9" t="n">
-        <v>134.646327259838</v>
+        <v>134.6463272598385</v>
       </c>
       <c r="R9" t="n">
-        <v>143.0843766525478</v>
+        <v>143.0843766525481</v>
       </c>
       <c r="S9" t="n">
-        <v>170.9067961275841</v>
+        <v>170.9067961275842</v>
       </c>
       <c r="T9" t="n">
         <v>199.9962544083571</v>
@@ -28029,40 +28029,40 @@
         <v>161.9156187457028</v>
       </c>
       <c r="I10" t="n">
-        <v>154.3966714059646</v>
+        <v>154.3966714059647</v>
       </c>
       <c r="J10" t="n">
-        <v>124.5179637655446</v>
+        <v>124.5179637655448</v>
       </c>
       <c r="K10" t="n">
-        <v>124.9420341674721</v>
+        <v>124.9420341674726</v>
       </c>
       <c r="L10" t="n">
-        <v>129.674911230683</v>
+        <v>129.6749112306836</v>
       </c>
       <c r="M10" t="n">
-        <v>133.4328171647553</v>
+        <v>133.4328171647559</v>
       </c>
       <c r="N10" t="n">
-        <v>122.3231881550952</v>
+        <v>122.3231881550957</v>
       </c>
       <c r="O10" t="n">
-        <v>133.5035344769111</v>
+        <v>133.5035344769116</v>
       </c>
       <c r="P10" t="n">
-        <v>133.4898534907162</v>
+        <v>133.4898534907167</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.5707258632318</v>
+        <v>148.5707258632321</v>
       </c>
       <c r="R10" t="n">
-        <v>175.717783089286</v>
+        <v>175.7177830892862</v>
       </c>
       <c r="S10" t="n">
         <v>223.4059144365128</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7958652278558</v>
+        <v>227.7958652278559</v>
       </c>
       <c r="U10" t="n">
         <v>286.3171179837195</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="C11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="D11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="E11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="F11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="G11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="H11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="I11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="T11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="U11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="V11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="W11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="X11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
     </row>
     <row r="12">
@@ -28184,7 +28184,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-6.679101716144942e-13</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="C13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="D13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="E13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="F13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="G13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="H13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="I13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="J13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="K13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="L13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="M13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="N13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="O13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="P13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="Q13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="R13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="S13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="T13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="U13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="V13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="W13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="X13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="C14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="D14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="E14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="F14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="G14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="H14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="I14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="T14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="U14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="V14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="W14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="X14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
     </row>
     <row r="15">
@@ -28403,7 +28403,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="C16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="D16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="E16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="F16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="G16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="H16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="I16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="J16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="K16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="L16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="M16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="N16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="O16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="P16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="Q16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="R16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="S16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="T16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="U16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="V16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="W16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="X16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.9143690082332</v>
+        <v>11.91436900823313</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y17" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28646,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="J19" t="n">
-        <v>76.32843350415936</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="K19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="L19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="N19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="O19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>76.328433504158</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="S19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y20" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L22" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>86.41330088048466</v>
       </c>
       <c r="O22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P22" t="n">
-        <v>86.41330088048346</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R22" t="n">
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y23" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="24">
@@ -29120,7 +29120,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L25" t="n">
-        <v>76.32843350415965</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M25" t="n">
-        <v>97.68472022810499</v>
+        <v>76.32843350416047</v>
       </c>
       <c r="N25" t="n">
-        <v>97.68472022810499</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.68472022810499</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="26">
@@ -29272,34 +29272,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="C26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="D26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="E26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="F26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="G26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="I26" t="n">
-        <v>85.77035121987163</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
-        <v>85.77035121987163</v>
+        <v>84.4175542135182</v>
       </c>
       <c r="K26" t="n">
-        <v>40.22413276657545</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="T26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="U26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="V26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="W26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="X26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Y26" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29414,7 +29414,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="C28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="D28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="E28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="F28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="G28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="H28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="I28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="J28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="K28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="L28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="M28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="N28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="O28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="P28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Q28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="R28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="S28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="T28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="U28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="V28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="W28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="X28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
       <c r="Y28" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987181</v>
       </c>
     </row>
     <row r="29">
@@ -29509,46 +29509,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="C29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="D29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="E29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="F29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="G29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="H29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>84.41755421351826</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>85.77035121987163</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>84.4175542135207</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="T29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="U29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="V29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="W29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="X29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="Y29" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
     </row>
     <row r="30">
@@ -29648,7 +29648,7 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="C31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="D31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="E31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="F31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="G31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="H31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="I31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="J31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="K31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="L31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="M31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="N31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="O31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="P31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="R31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="S31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="T31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="U31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="V31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="W31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="X31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.77035121987163</v>
+        <v>85.77035121987174</v>
       </c>
     </row>
     <row r="32">
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="C32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="D32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="E32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="F32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="G32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="H32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="I32" t="n">
-        <v>85.77035121987166</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>84.41755421351695</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,16 +29779,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="N32" t="n">
-        <v>85.77035121987166</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>40.22413276657414</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="T32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="U32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="V32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="W32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="X32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="C34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="D34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="E34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="F34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="G34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="H34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="I34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="J34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="K34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="L34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="M34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="N34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="O34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="P34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="Q34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="R34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="S34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="T34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="U34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="V34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="W34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="X34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.77035121987166</v>
+        <v>85.77035121987174</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292761</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.161737372967764e-12</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30162,25 +30162,25 @@
         <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>76.32843350416047</v>
       </c>
       <c r="M37" t="n">
-        <v>86.41330088048497</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N37" t="n">
         <v>97.68472022810495</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>97.68472022810495</v>
@@ -30189,7 +30189,7 @@
         <v>97.68472022810495</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S37" t="n">
         <v>97.68472022810495</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="39">
@@ -30317,10 +30317,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="O40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="P40" t="n">
-        <v>86.41330088048466</v>
+        <v>76.32843350415916</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>4.831690603168681e-13</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="L43" t="n">
-        <v>77.66073332242382</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810511</v>
+        <v>76.32843350416047</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810511</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810511</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30776,7 +30776,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J46" t="n">
-        <v>77.6607333224274</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="N46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810495</v>
+        <v>76.32843350415894</v>
       </c>
       <c r="Q46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07811975816071237</v>
+        <v>0.07811975816070399</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8000439732633958</v>
+        <v>0.8000439732633099</v>
       </c>
       <c r="I8" t="n">
-        <v>3.011711976490867</v>
+        <v>3.011711976490544</v>
       </c>
       <c r="J8" t="n">
-        <v>6.630316824192768</v>
+        <v>6.630316824192056</v>
       </c>
       <c r="K8" t="n">
-        <v>9.937126187135725</v>
+        <v>9.937126187134659</v>
       </c>
       <c r="L8" t="n">
-        <v>12.32788373594663</v>
+        <v>12.3278837359453</v>
       </c>
       <c r="M8" t="n">
-        <v>13.7171459851372</v>
+        <v>13.71714598513572</v>
       </c>
       <c r="N8" t="n">
-        <v>13.93910374801132</v>
+        <v>13.93910374800983</v>
       </c>
       <c r="O8" t="n">
-        <v>13.16230040280074</v>
+        <v>13.16230040279932</v>
       </c>
       <c r="P8" t="n">
-        <v>11.23371887320815</v>
+        <v>11.23371887320694</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.436055034077635</v>
+        <v>8.436055034076729</v>
       </c>
       <c r="R8" t="n">
-        <v>4.907190258562853</v>
+        <v>4.907190258562326</v>
       </c>
       <c r="S8" t="n">
-        <v>1.780153989087235</v>
+        <v>1.780153989087044</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3419692413485186</v>
+        <v>0.3419692413484819</v>
       </c>
       <c r="U8" t="n">
-        <v>0.006249580652856988</v>
+        <v>0.006249580652856318</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04179775551023401</v>
+        <v>0.04179775551022953</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4036783229541023</v>
+        <v>0.403678322954059</v>
       </c>
       <c r="I9" t="n">
-        <v>1.439089389277794</v>
+        <v>1.43908938927764</v>
       </c>
       <c r="J9" t="n">
-        <v>3.948971278271715</v>
+        <v>3.948971278271292</v>
       </c>
       <c r="K9" t="n">
-        <v>6.749420897457394</v>
+        <v>6.74942089745667</v>
       </c>
       <c r="L9" t="n">
-        <v>9.075429326904102</v>
+        <v>9.075429326903128</v>
       </c>
       <c r="M9" t="n">
-        <v>10.59059796415008</v>
+        <v>10.59059796414895</v>
       </c>
       <c r="N9" t="n">
-        <v>10.87089957895336</v>
+        <v>10.8708995789522</v>
       </c>
       <c r="O9" t="n">
-        <v>9.944749312121337</v>
+        <v>9.944749312120269</v>
       </c>
       <c r="P9" t="n">
-        <v>7.981538067563898</v>
+        <v>7.981538067563042</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.335446826183556</v>
+        <v>5.335446826182984</v>
       </c>
       <c r="R9" t="n">
-        <v>2.59512731141611</v>
+        <v>2.595127311415831</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7763749762536883</v>
+        <v>0.7763749762536051</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1684742864644958</v>
+        <v>0.1684742864644777</v>
       </c>
       <c r="U9" t="n">
-        <v>0.002749852336199607</v>
+        <v>0.002749852336199312</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03504183414217203</v>
+        <v>0.03504183414216826</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3115537617367661</v>
+        <v>0.3115537617367327</v>
       </c>
       <c r="I10" t="n">
-        <v>1.053803521293683</v>
+        <v>1.05380352129357</v>
       </c>
       <c r="J10" t="n">
-        <v>2.477457673851562</v>
+        <v>2.477457673851296</v>
       </c>
       <c r="K10" t="n">
-        <v>4.071224003063258</v>
+        <v>4.071224003062821</v>
       </c>
       <c r="L10" t="n">
-        <v>5.209765050555286</v>
+        <v>5.209765050554727</v>
       </c>
       <c r="M10" t="n">
-        <v>5.492966782849748</v>
+        <v>5.492966782849158</v>
       </c>
       <c r="N10" t="n">
-        <v>5.362356310138019</v>
+        <v>5.362356310137444</v>
       </c>
       <c r="O10" t="n">
-        <v>4.953003974931735</v>
+        <v>4.953003974931204</v>
       </c>
       <c r="P10" t="n">
-        <v>4.238150558431422</v>
+        <v>4.238150558430967</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.93427576621406</v>
+        <v>2.934275766213745</v>
       </c>
       <c r="R10" t="n">
-        <v>1.57560828788348</v>
+        <v>1.575608287883311</v>
       </c>
       <c r="S10" t="n">
-        <v>0.6106836004594887</v>
+        <v>0.6106836004594232</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1497242004256441</v>
+        <v>0.149724200425628</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001911372771391204</v>
+        <v>0.001911372771390999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32473,7 +32473,7 @@
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003801</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
         <v>691.3565293623194</v>
@@ -33278,7 +33278,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987486</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.4927856212994</v>
+        <v>57.49278562129939</v>
       </c>
       <c r="K13" t="n">
-        <v>217.9620285525527</v>
+        <v>217.9620285525528</v>
       </c>
       <c r="L13" t="n">
         <v>331.6717411784313</v>
@@ -35577,7 +35577,7 @@
         <v>359.547748401717</v>
       </c>
       <c r="N13" t="n">
-        <v>356.7713151757732</v>
+        <v>356.7713151757733</v>
       </c>
       <c r="O13" t="n">
         <v>314.2674992308729</v>
@@ -35586,7 +35586,7 @@
         <v>246.8714401533436</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.30860754612684</v>
+        <v>90.30860754612682</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>57.4927856212994</v>
+        <v>57.49278562129938</v>
       </c>
       <c r="K16" t="n">
-        <v>217.9620285525527</v>
+        <v>217.9620285525528</v>
       </c>
       <c r="L16" t="n">
         <v>331.6717411784313</v>
@@ -35814,7 +35814,7 @@
         <v>359.547748401717</v>
       </c>
       <c r="N16" t="n">
-        <v>356.7713151757732</v>
+        <v>356.7713151757733</v>
       </c>
       <c r="O16" t="n">
         <v>314.2674992308729</v>
@@ -35823,7 +35823,7 @@
         <v>246.8714401533436</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.30860754612684</v>
+        <v>90.30860754612682</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36036,34 +36036,34 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.332299818266897</v>
+        <v>1.332299818266954</v>
       </c>
       <c r="J19" t="n">
-        <v>88.27060879450222</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K19" t="n">
-        <v>196.988613427772</v>
+        <v>196.9886134277721</v>
       </c>
       <c r="L19" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121432</v>
       </c>
       <c r="N19" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O19" t="n">
-        <v>236.9961840848623</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106927</v>
+        <v>176.2789413352273</v>
       </c>
       <c r="Q19" t="n">
-        <v>110.7360003882472</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R19" t="n">
-        <v>8.752567558057663</v>
+        <v>8.75256755805772</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865553995</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K22" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L22" t="n">
-        <v>254.9673908567487</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>259.452530203563</v>
       </c>
       <c r="O22" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P22" t="n">
-        <v>186.3638087115528</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q22" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36510,34 +36510,34 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.332299818266883</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J25" t="n">
-        <v>109.6268955184479</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K25" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L25" t="n">
-        <v>233.6111041328033</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M25" t="n">
-        <v>266.8084387121431</v>
+        <v>245.4521519881986</v>
       </c>
       <c r="N25" t="n">
-        <v>270.7239495511832</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O25" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P25" t="n">
         <v>99.95050783106927</v>
       </c>
       <c r="Q25" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R25" t="n">
-        <v>8.752567558057649</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,13 +36589,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.19342144694565</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>276.5573521885841</v>
+        <v>275.2045551822307</v>
       </c>
       <c r="K26" t="n">
-        <v>377.4154193219758</v>
+        <v>422.9616377752722</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.2544927130473</v>
+        <v>97.71252651021467</v>
       </c>
       <c r="K28" t="n">
-        <v>185.0742444195386</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L28" t="n">
-        <v>243.0530218485153</v>
+        <v>315.9379464290952</v>
       </c>
       <c r="M28" t="n">
-        <v>254.8940697039098</v>
+        <v>254.89406970391</v>
       </c>
       <c r="N28" t="n">
-        <v>258.8095805429499</v>
+        <v>258.8095805429501</v>
       </c>
       <c r="O28" t="n">
-        <v>225.0818150766289</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P28" t="n">
-        <v>185.7208590509409</v>
+        <v>185.7208590509411</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.1645897577653</v>
+        <v>98.82163138001398</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>276.5573521885842</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>421.6088407689186</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>624.6914670500981</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>592.4705551017397</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36926,7 +36926,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127271</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>131.3487678329378</v>
+        <v>97.7125265102146</v>
       </c>
       <c r="K31" t="n">
-        <v>185.0742444195386</v>
+        <v>185.0742444195387</v>
       </c>
       <c r="L31" t="n">
-        <v>243.0530218485153</v>
+        <v>243.0530218485154</v>
       </c>
       <c r="M31" t="n">
-        <v>254.8940697039098</v>
+        <v>254.8940697039099</v>
       </c>
       <c r="N31" t="n">
-        <v>258.8095805429499</v>
+        <v>258.80958054295</v>
       </c>
       <c r="O31" t="n">
-        <v>225.0818150766289</v>
+        <v>297.9667396572107</v>
       </c>
       <c r="P31" t="n">
-        <v>185.7208590509409</v>
+        <v>185.720859050941</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.0703146378745</v>
+        <v>98.82163138001391</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>44.19342144694568</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>275.2045551822295</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>624.6914670500985</v>
       </c>
       <c r="N32" t="n">
-        <v>638.072186632783</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>438.9861189859458</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>97.71252651021452</v>
+        <v>97.71252651021463</v>
       </c>
       <c r="K34" t="n">
-        <v>185.0742444195386</v>
+        <v>185.0742444195388</v>
       </c>
       <c r="L34" t="n">
-        <v>243.0530218485153</v>
+        <v>243.0530218485154</v>
       </c>
       <c r="M34" t="n">
-        <v>327.7789942844934</v>
+        <v>254.8940697039099</v>
       </c>
       <c r="N34" t="n">
-        <v>258.8095805429499</v>
+        <v>258.80958054295</v>
       </c>
       <c r="O34" t="n">
-        <v>225.0818150766289</v>
+        <v>225.0818150766291</v>
       </c>
       <c r="P34" t="n">
-        <v>185.7208590509409</v>
+        <v>258.6057836315225</v>
       </c>
       <c r="Q34" t="n">
-        <v>98.82163138001383</v>
+        <v>98.82163138001394</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37458,25 +37458,25 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184478</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286436</v>
+        <v>233.6111041328041</v>
       </c>
       <c r="M37" t="n">
-        <v>255.5370193645231</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N37" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848622</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P37" t="n">
         <v>197.6352280591742</v>
@@ -37485,7 +37485,7 @@
         <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37695,34 +37695,34 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.332299818266897</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>109.6268955184479</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
         <v>254.9673908567486</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>266.8084387121431</v>
       </c>
       <c r="N40" t="n">
         <v>270.7239495511832</v>
       </c>
       <c r="O40" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P40" t="n">
-        <v>186.3638087115539</v>
+        <v>176.2789413352284</v>
       </c>
       <c r="Q40" t="n">
         <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057663</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037199</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J43" t="n">
-        <v>11.94217529034286</v>
+        <v>109.6268955184478</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L43" t="n">
-        <v>234.9434039510675</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
-        <v>266.8084387121432</v>
+        <v>245.4521519881986</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511834</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848624</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591744</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882473</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>8.752567558057763</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38169,34 +38169,34 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J46" t="n">
-        <v>89.60290861277026</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K46" t="n">
-        <v>99.30389319966699</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L46" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567487</v>
       </c>
       <c r="M46" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>270.7239495511832</v>
+        <v>270.7239495511833</v>
       </c>
       <c r="O46" t="n">
-        <v>236.9961840848622</v>
+        <v>236.9961840848623</v>
       </c>
       <c r="P46" t="n">
-        <v>197.6352280591742</v>
+        <v>176.2789413352282</v>
       </c>
       <c r="Q46" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R46" t="n">
-        <v>8.752567558057606</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
